--- a/data/input/absenteeism_data_31.xlsx
+++ b/data/input/absenteeism_data_31.xlsx
@@ -476,156 +476,156 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88799</v>
+        <v>37923</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gabriel Costa</t>
+          <t>Eduarda da Costa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45080</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>3552.02</v>
+        <v>4306.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>49892</v>
+        <v>26866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dra. Maria Cecília Araújo</t>
+          <t>Augusto Vieira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>8797.49</v>
+        <v>10581.07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94577</v>
+        <v>75662</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henrique Teixeira</t>
+          <t>Juliana Almeida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45099</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>10371.86</v>
+        <v>9139.719999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87824</v>
+        <v>27144</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Manuela Caldeira</t>
+          <t>Nicole Pinto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>7913.23</v>
+        <v>4882.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20841</v>
+        <v>79185</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Juliana Nunes</t>
+          <t>Anthony Nascimento</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45083</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>6786.04</v>
+        <v>10435.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>828</v>
+        <v>44693</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Elisa Novaes</t>
+          <t>Yago Azevedo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,26 +635,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45087</v>
+        <v>45106</v>
       </c>
       <c r="G7" t="n">
-        <v>6805.25</v>
+        <v>4604.96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8095</v>
+        <v>43355</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Benício Carvalho</t>
+          <t>Erick da Mota</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,60 +664,60 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>11889.43</v>
+        <v>10034.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11223</v>
+        <v>28393</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pedro Silveira</t>
+          <t>Nina da Paz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>2590.31</v>
+        <v>8940.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79181</v>
+        <v>9463</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Nathan da Costa</t>
+          <t>Elisa Campos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45102</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>3643.93</v>
+        <v>2844.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11826</v>
+        <v>28161</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gustavo Araújo</t>
+          <t>Maria Sophia Cardoso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45095</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>10335.37</v>
+        <v>3163.96</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_31.xlsx
+++ b/data/input/absenteeism_data_31.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37923</v>
+        <v>37783</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eduarda da Costa</t>
+          <t>Dr. Alexandre Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45090</v>
       </c>
       <c r="G2" t="n">
-        <v>4306.63</v>
+        <v>9795.610000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26866</v>
+        <v>58018</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Augusto Vieira</t>
+          <t>Alice Gomes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,31 +519,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>10581.07</v>
+        <v>9238.450000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>75662</v>
+        <v>87879</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Juliana Almeida</t>
+          <t>Luigi Ferreira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,201 +552,201 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45101</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>9139.719999999999</v>
+        <v>7567.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27144</v>
+        <v>73480</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nicole Pinto</t>
+          <t>Lorenzo Fernandes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>4882.21</v>
+        <v>9296.700000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79185</v>
+        <v>78527</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anthony Nascimento</t>
+          <t>Alana Sales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>10435.02</v>
+        <v>5448.93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>44693</v>
+        <v>15048</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Yago Azevedo</t>
+          <t>Pietro da Rosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45106</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>4604.96</v>
+        <v>10550.81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>43355</v>
+        <v>99877</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Erick da Mota</t>
+          <t>Lucas Gabriel Nogueira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>10034.04</v>
+        <v>7300.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>28393</v>
+        <v>52414</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nina da Paz</t>
+          <t>Pietra Silveira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>8940.74</v>
+        <v>12394.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9463</v>
+        <v>9504</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Elisa Campos</t>
+          <t>Raul Barros</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45094</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>2844.12</v>
+        <v>6481.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>28161</v>
+        <v>27586</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Sophia Cardoso</t>
+          <t>Dra. Ana Júlia Monteiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45096</v>
       </c>
       <c r="G11" t="n">
-        <v>3163.96</v>
+        <v>9426.27</v>
       </c>
     </row>
   </sheetData>
